--- a/results/mp/logistic/corona/confidence/84/desired-masking-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/desired-masking-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="71">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,18 +43,27 @@
     <t>war</t>
   </si>
   <si>
+    <t>crude</t>
+  </si>
+  <si>
     <t>die</t>
   </si>
   <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>forced</t>
+  </si>
+  <si>
     <t>fraud</t>
   </si>
   <si>
-    <t>crude</t>
-  </si>
-  <si>
     <t>crisis</t>
   </si>
   <si>
+    <t>fuck</t>
+  </si>
+  <si>
     <t>falling</t>
   </si>
   <si>
@@ -73,67 +82,82 @@
     <t>low</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
     <t>no</t>
   </si>
   <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>cut</t>
+  </si>
+  <si>
     <t>emergency</t>
   </si>
   <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>lower</t>
+    <t>risk</t>
   </si>
   <si>
     <t>stop</t>
   </si>
   <si>
+    <t>empty</t>
+  </si>
+  <si>
     <t>demand</t>
   </si>
   <si>
+    <t>oil</t>
+  </si>
+  <si>
+    <t>co</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
     <t>negative</t>
   </si>
   <si>
     <t>love</t>
   </si>
   <si>
+    <t>free</t>
+  </si>
+  <si>
     <t>interesting</t>
   </si>
   <si>
-    <t>free</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
+    <t>special</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
     <t>support</t>
   </si>
   <si>
-    <t>heroes</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>special</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>safe</t>
+    <t>positive</t>
   </si>
   <si>
     <t>confidence</t>
@@ -142,64 +166,67 @@
     <t>thanks</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
+    <t>won</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>gt</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>won</t>
-  </si>
-  <si>
     <t>like</t>
   </si>
   <si>
     <t>save</t>
   </si>
   <si>
+    <t>relief</t>
+  </si>
+  <si>
     <t>help</t>
   </si>
   <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
-    <t>relief</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>safety</t>
   </si>
   <si>
     <t>hope</t>
   </si>
   <si>
-    <t>safety</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>important</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>increase</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
-    <t>increase</t>
-  </si>
-  <si>
     <t>you</t>
+  </si>
+  <si>
+    <t>and</t>
+  </si>
+  <si>
+    <t>corona</t>
   </si>
 </sst>
 </file>
@@ -557,7 +584,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q37"/>
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -565,10 +592,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="J1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -626,13 +653,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9473684210526315</v>
+        <v>0.9736842105263158</v>
       </c>
       <c r="C3">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D3">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -644,10 +671,10 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>34</v>
       </c>
       <c r="K3">
         <v>0.9782608695652174</v>
@@ -676,13 +703,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.918918918918919</v>
+        <v>0.9411764705882353</v>
       </c>
       <c r="C4">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D4">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -694,19 +721,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="K4">
-        <v>0.9696969696969697</v>
+        <v>0.9583333333333334</v>
       </c>
       <c r="L4">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="M4">
-        <v>32</v>
+        <v>115</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -718,7 +745,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -726,13 +753,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.8888888888888888</v>
+        <v>0.8918918918918919</v>
       </c>
       <c r="C5">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -747,16 +774,16 @@
         <v>4</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="K5">
-        <v>0.9583333333333334</v>
+        <v>0.9393939393939394</v>
       </c>
       <c r="L5">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="M5">
-        <v>115</v>
+        <v>31</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -768,7 +795,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -776,13 +803,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.8823529411764706</v>
+        <v>0.8666666666666667</v>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D6">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -797,7 +824,7 @@
         <v>4</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="K6">
         <v>0.9322033898305084</v>
@@ -826,13 +853,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.8527397260273972</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="C7">
-        <v>249</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>249</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -844,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="K7">
-        <v>0.9060052219321149</v>
+        <v>0.9166666666666666</v>
       </c>
       <c r="L7">
-        <v>347</v>
+        <v>33</v>
       </c>
       <c r="M7">
-        <v>347</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -868,7 +895,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>36</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -876,13 +903,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.725</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="C8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D8">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -894,19 +921,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="K8">
-        <v>0.8962264150943396</v>
+        <v>0.9007832898172323</v>
       </c>
       <c r="L8">
-        <v>95</v>
+        <v>345</v>
       </c>
       <c r="M8">
-        <v>95</v>
+        <v>345</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -918,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>11</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -926,13 +953,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.6841085271317829</v>
+        <v>0.8595890410958904</v>
       </c>
       <c r="C9">
-        <v>353</v>
+        <v>251</v>
       </c>
       <c r="D9">
-        <v>353</v>
+        <v>251</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -944,19 +971,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>163</v>
+        <v>41</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="K9">
-        <v>0.8936170212765957</v>
+        <v>0.8984375</v>
       </c>
       <c r="L9">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="M9">
-        <v>42</v>
+        <v>115</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -968,7 +995,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -976,13 +1003,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6779661016949152</v>
+        <v>0.7948717948717948</v>
       </c>
       <c r="C10">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="D10">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -994,19 +1021,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="K10">
-        <v>0.890625</v>
+        <v>0.8936170212765957</v>
       </c>
       <c r="L10">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="M10">
-        <v>114</v>
+        <v>42</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1018,7 +1045,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>14</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1026,13 +1053,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6772486772486772</v>
+        <v>0.7</v>
       </c>
       <c r="C11">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="D11">
-        <v>128</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1044,19 +1071,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>61</v>
+        <v>12</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="K11">
-        <v>0.8888888888888888</v>
+        <v>0.8928571428571429</v>
       </c>
       <c r="L11">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="M11">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1068,7 +1095,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1076,13 +1103,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.6666666666666666</v>
+        <v>0.6957364341085271</v>
       </c>
       <c r="C12">
-        <v>34</v>
+        <v>359</v>
       </c>
       <c r="D12">
-        <v>34</v>
+        <v>359</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1094,19 +1121,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>17</v>
+        <v>157</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="K12">
-        <v>0.8839285714285714</v>
+        <v>0.8837209302325582</v>
       </c>
       <c r="L12">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="M12">
-        <v>99</v>
+        <v>38</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1118,7 +1145,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1126,13 +1153,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.6577181208053692</v>
+        <v>0.6779661016949152</v>
       </c>
       <c r="C13">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="D13">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1144,19 +1171,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="K13">
-        <v>0.8837209302325582</v>
+        <v>0.88125</v>
       </c>
       <c r="L13">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="M13">
-        <v>38</v>
+        <v>141</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1168,7 +1195,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>5</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1176,13 +1203,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.6410256410256411</v>
+        <v>0.671957671957672</v>
       </c>
       <c r="C14">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="D14">
-        <v>25</v>
+        <v>127</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1194,19 +1221,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="K14">
-        <v>0.88125</v>
+        <v>0.8802816901408451</v>
       </c>
       <c r="L14">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="M14">
-        <v>141</v>
+        <v>125</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1218,7 +1245,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1226,13 +1253,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.5833333333333334</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C15">
-        <v>210</v>
+        <v>34</v>
       </c>
       <c r="D15">
-        <v>210</v>
+        <v>34</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1244,19 +1271,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>150</v>
+        <v>17</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="K15">
-        <v>0.8732394366197183</v>
+        <v>0.8773584905660378</v>
       </c>
       <c r="L15">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="M15">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1268,7 +1295,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1276,13 +1303,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.5333333333333333</v>
+        <v>0.6107382550335571</v>
       </c>
       <c r="C16">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="D16">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1294,19 +1321,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="K16">
-        <v>0.8611111111111112</v>
+        <v>0.8620689655172413</v>
       </c>
       <c r="L16">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M16">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1318,7 +1345,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1326,13 +1353,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.509090909090909</v>
+        <v>0.5861111111111111</v>
       </c>
       <c r="C17">
-        <v>28</v>
+        <v>211</v>
       </c>
       <c r="D17">
-        <v>28</v>
+        <v>211</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1344,19 +1371,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>27</v>
+        <v>149</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="K17">
-        <v>0.8536585365853658</v>
+        <v>0.8611111111111112</v>
       </c>
       <c r="L17">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="M17">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1368,7 +1395,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1376,13 +1403,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.4464285714285715</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="C18">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="D18">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1394,19 +1421,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="K18">
-        <v>0.8448275862068966</v>
+        <v>0.8536585365853658</v>
       </c>
       <c r="L18">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="M18">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1418,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1426,13 +1453,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.2857142857142857</v>
+        <v>0.4909090909090909</v>
       </c>
       <c r="C19">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="D19">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1444,19 +1471,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>180</v>
+        <v>28</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="K19">
-        <v>0.8095238095238095</v>
+        <v>0.8253968253968254</v>
       </c>
       <c r="L19">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M19">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1468,7 +1495,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1476,13 +1503,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.1447721179624665</v>
+        <v>0.4666666666666667</v>
       </c>
       <c r="C20">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="D20">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1494,13 +1521,13 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>319</v>
+        <v>40</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="K20">
-        <v>0.8</v>
+        <v>0.8205128205128205</v>
       </c>
       <c r="L20">
         <v>32</v>
@@ -1518,12 +1545,36 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:17">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>0.3766233766233766</v>
+      </c>
+      <c r="C21">
+        <v>29</v>
+      </c>
+      <c r="D21">
+        <v>29</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>48</v>
+      </c>
       <c r="J21" s="1" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="K21">
         <v>0.7916666666666666</v>
@@ -1548,17 +1599,41 @@
       </c>
     </row>
     <row r="22" spans="1:17">
+      <c r="A22" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22">
+        <v>0.3452380952380952</v>
+      </c>
+      <c r="C22">
+        <v>87</v>
+      </c>
+      <c r="D22">
+        <v>87</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="b">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>165</v>
+      </c>
       <c r="J22" s="1" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="K22">
-        <v>0.7692307692307693</v>
+        <v>0.775</v>
       </c>
       <c r="L22">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M22">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1574,17 +1649,41 @@
       </c>
     </row>
     <row r="23" spans="1:17">
+      <c r="A23" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B23">
+        <v>0.3444444444444444</v>
+      </c>
+      <c r="C23">
+        <v>31</v>
+      </c>
+      <c r="D23">
+        <v>31</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="b">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>59</v>
+      </c>
       <c r="J23" s="1" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="K23">
-        <v>0.75</v>
+        <v>0.7588235294117647</v>
       </c>
       <c r="L23">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="M23">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1596,12 +1695,36 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:17">
+      <c r="A24" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24">
+        <v>0.1903485254691689</v>
+      </c>
+      <c r="C24">
+        <v>71</v>
+      </c>
+      <c r="D24">
+        <v>71</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="b">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>302</v>
+      </c>
       <c r="J24" s="1" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="K24">
         <v>0.7428571428571429</v>
@@ -1626,17 +1749,41 @@
       </c>
     </row>
     <row r="25" spans="1:17">
+      <c r="A25" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25">
+        <v>0.1</v>
+      </c>
+      <c r="C25">
+        <v>30</v>
+      </c>
+      <c r="D25">
+        <v>30</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="b">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>270</v>
+      </c>
       <c r="J25" s="1" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="K25">
-        <v>0.711864406779661</v>
+        <v>0.74</v>
       </c>
       <c r="L25">
-        <v>210</v>
+        <v>37</v>
       </c>
       <c r="M25">
-        <v>210</v>
+        <v>37</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1648,21 +1795,45 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>85</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:17">
+      <c r="A26" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B26">
+        <v>0.01449742268041237</v>
+      </c>
+      <c r="C26">
+        <v>45</v>
+      </c>
+      <c r="D26">
+        <v>48</v>
+      </c>
+      <c r="E26">
+        <v>0.06</v>
+      </c>
+      <c r="F26">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <v>3059</v>
+      </c>
       <c r="J26" s="1" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="K26">
-        <v>0.7021276595744681</v>
+        <v>0.7186440677966102</v>
       </c>
       <c r="L26">
-        <v>66</v>
+        <v>212</v>
       </c>
       <c r="M26">
-        <v>66</v>
+        <v>212</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1674,21 +1845,45 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>28</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:17">
+      <c r="A27" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B27">
+        <v>0.005431502715751358</v>
+      </c>
+      <c r="C27">
+        <v>27</v>
+      </c>
+      <c r="D27">
+        <v>52</v>
+      </c>
+      <c r="E27">
+        <v>0.48</v>
+      </c>
+      <c r="F27">
+        <v>0.52</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27">
+        <v>4944</v>
+      </c>
       <c r="J27" s="1" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="K27">
-        <v>0.7</v>
+        <v>0.702928870292887</v>
       </c>
       <c r="L27">
-        <v>35</v>
+        <v>168</v>
       </c>
       <c r="M27">
-        <v>35</v>
+        <v>168</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1700,21 +1895,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>15</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="K28">
-        <v>0.6903765690376569</v>
+        <v>0.6853932584269663</v>
       </c>
       <c r="L28">
-        <v>165</v>
+        <v>61</v>
       </c>
       <c r="M28">
-        <v>165</v>
+        <v>61</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1726,21 +1921,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>74</v>
+        <v>28</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="K29">
-        <v>0.6853932584269663</v>
+        <v>0.6808510638297872</v>
       </c>
       <c r="L29">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="M29">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1752,21 +1947,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="K30">
-        <v>0.6615384615384615</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L30">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="M30">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1778,21 +1973,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="K31">
-        <v>0.6470588235294118</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L31">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="M31">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1804,21 +1999,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="K32">
-        <v>0.6285714285714286</v>
+        <v>0.6142857142857143</v>
       </c>
       <c r="L32">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="M32">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1830,21 +2025,21 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="K33">
-        <v>0.5777777777777777</v>
+        <v>0.515625</v>
       </c>
       <c r="L33">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="M33">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1856,21 +2051,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>19</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="K34">
-        <v>0.5205479452054794</v>
+        <v>0.4385964912280702</v>
       </c>
       <c r="L34">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="M34">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1882,21 +2077,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="K35">
-        <v>0.40625</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L35">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="M35">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1908,15 +2103,15 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="K36">
-        <v>0.358974358974359</v>
+        <v>0.3835616438356164</v>
       </c>
       <c r="L36">
         <v>28</v>
@@ -1934,33 +2129,111 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="K37">
-        <v>0.02085070892410342</v>
+        <v>0.0350584307178631</v>
       </c>
       <c r="L37">
+        <v>42</v>
+      </c>
+      <c r="M37">
+        <v>44</v>
+      </c>
+      <c r="N37">
+        <v>0.95</v>
+      </c>
+      <c r="O37">
+        <v>0.05000000000000004</v>
+      </c>
+      <c r="P37" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="38" spans="10:17">
+      <c r="J38" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="K38">
+        <v>0.01051051051051051</v>
+      </c>
+      <c r="L38">
+        <v>28</v>
+      </c>
+      <c r="M38">
+        <v>37</v>
+      </c>
+      <c r="N38">
+        <v>0.76</v>
+      </c>
+      <c r="O38">
+        <v>0.24</v>
+      </c>
+      <c r="P38" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="39" spans="10:17">
+      <c r="J39" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K39">
+        <v>0.01004394224733208</v>
+      </c>
+      <c r="L39">
+        <v>32</v>
+      </c>
+      <c r="M39">
+        <v>47</v>
+      </c>
+      <c r="N39">
+        <v>0.68</v>
+      </c>
+      <c r="O39">
+        <v>0.32</v>
+      </c>
+      <c r="P39" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>3154</v>
+      </c>
+    </row>
+    <row r="40" spans="10:17">
+      <c r="J40" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K40">
+        <v>0.00503119339907426</v>
+      </c>
+      <c r="L40">
         <v>25</v>
       </c>
-      <c r="M37">
-        <v>26</v>
-      </c>
-      <c r="N37">
-        <v>0.96</v>
-      </c>
-      <c r="O37">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P37" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q37">
-        <v>1174</v>
+      <c r="M40">
+        <v>52</v>
+      </c>
+      <c r="N40">
+        <v>0.48</v>
+      </c>
+      <c r="O40">
+        <v>0.52</v>
+      </c>
+      <c r="P40" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>4944</v>
       </c>
     </row>
   </sheetData>
